--- a/biology/Zoologie/Association_suisse_pour_la_protection_des_oiseaux/Association_suisse_pour_la_protection_des_oiseaux.xlsx
+++ b/biology/Zoologie/Association_suisse_pour_la_protection_des_oiseaux/Association_suisse_pour_la_protection_des_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association suisse pour la protection des oiseaux ASPO/BirdLife Suisse est une organisation de protection de la nature, des oiseaux et de leurs habitats.
-L'ASPO est la troisième plus grande association de protection de la nature en Suisse (après le WWF Suisse et Pro Natura)[1]. Elle est la partenaire suisse de BirdLife International[2].
+L'ASPO est la troisième plus grande association de protection de la nature en Suisse (après le WWF Suisse et Pro Natura). Elle est la partenaire suisse de BirdLife International.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Organisation et activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022, cent ans après sa fondation, l'association compte 68 000 membres, 440 sections de protection de la nature et 20 associations cantonales[3]. Ces associations cantonales gèrent 1 200 réserves naturelles ainsi que des projets de conservation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, cent ans après sa fondation, l'association compte 68 000 membres, 440 sections de protection de la nature et 20 associations cantonales. Ces associations cantonales gèrent 1 200 réserves naturelles ainsi que des projets de conservation.
 </t>
         </is>
       </c>
